--- a/Lombardia_processed/PO017029NU0001_2012_2021.xlsx
+++ b/Lombardia_processed/PO017029NU0001_2012_2021.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="4">
-  <si>
-    <t>CODICE PUNTO</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>MISURA SOGGIACENZA [m]</t>
-  </si>
-  <si>
-    <t>PO017029NU0001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,971 +424,1413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>codice</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>41108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>41145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>41108</v>
-      </c>
-      <c r="C2">
-        <v>25.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>41145</v>
-      </c>
-      <c r="C3">
-        <v>25.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>41180</v>
-      </c>
-      <c r="C4">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>41208</v>
       </c>
-      <c r="C5">
+      <c r="D5" t="n">
         <v>25.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>41235</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="n">
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>41256</v>
       </c>
-      <c r="C7">
+      <c r="D7" t="n">
         <v>22.76</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>41292</v>
       </c>
-      <c r="C8">
+      <c r="D8" t="n">
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>41318</v>
       </c>
-      <c r="C9">
+      <c r="D9" t="n">
         <v>21.72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>41348</v>
       </c>
-      <c r="C10">
+      <c r="D10" t="n">
         <v>21.57</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>41383</v>
       </c>
-      <c r="C11">
+      <c r="D11" t="n">
         <v>20.04</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>41488</v>
       </c>
-      <c r="C12">
+      <c r="D12" t="n">
         <v>18.88</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="C13">
+      <c r="D13" t="n">
         <v>19.68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>41598</v>
       </c>
-      <c r="C14">
+      <c r="D14" t="n">
         <v>20.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>41627</v>
       </c>
-      <c r="C15">
+      <c r="D15" t="n">
         <v>20.03</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>41670</v>
       </c>
-      <c r="C16">
+      <c r="D16" t="n">
         <v>18.63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>41694</v>
       </c>
-      <c r="C17">
+      <c r="D17" t="n">
         <v>16.85</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>41716</v>
       </c>
-      <c r="C18">
+      <c r="D18" t="n">
         <v>16.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>41759</v>
       </c>
-      <c r="C19">
+      <c r="D19" t="n">
         <v>17.83</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="C20">
+      <c r="D20" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>41849</v>
       </c>
-      <c r="C21">
+      <c r="D21" t="n">
         <v>19.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>41880</v>
       </c>
-      <c r="C22">
+      <c r="D22" t="n">
         <v>19.6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>41901</v>
       </c>
-      <c r="C23">
+      <c r="D23" t="n">
         <v>18.83</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>41925</v>
       </c>
-      <c r="C24">
+      <c r="D24" t="n">
         <v>19.17</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>41957</v>
       </c>
-      <c r="C25">
+      <c r="D25" t="n">
         <v>19.82</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>41985</v>
       </c>
-      <c r="C26">
+      <c r="D26" t="n">
         <v>18.89</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>42025</v>
       </c>
-      <c r="C27">
+      <c r="D27" t="n">
         <v>20.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>42055</v>
       </c>
-      <c r="C28">
+      <c r="D28" t="n">
         <v>20.14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>42089</v>
       </c>
-      <c r="C29">
+      <c r="D29" t="n">
         <v>20.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>42111</v>
       </c>
-      <c r="C30">
+      <c r="D30" t="n">
         <v>20.69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>42152</v>
       </c>
-      <c r="C31">
+      <c r="D31" t="n">
         <v>21.66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>42181</v>
       </c>
-      <c r="C32">
+      <c r="D32" t="n">
         <v>22.49</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>42208</v>
       </c>
-      <c r="C33">
+      <c r="D33" t="n">
         <v>23.42</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
         <v>42241</v>
       </c>
-      <c r="C34">
+      <c r="D34" t="n">
         <v>23.96</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
         <v>42264</v>
       </c>
-      <c r="C35">
+      <c r="D35" t="n">
         <v>24.28</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
         <v>42306</v>
       </c>
-      <c r="C36">
+      <c r="D36" t="n">
         <v>24.49</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
         <v>42338</v>
       </c>
-      <c r="C37">
+      <c r="D37" t="n">
         <v>24.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>42354</v>
       </c>
-      <c r="C38">
+      <c r="D38" t="n">
         <v>25.11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
         <v>42403</v>
       </c>
-      <c r="C39">
+      <c r="D39" t="n">
         <v>23.94</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
         <v>42429</v>
       </c>
-      <c r="C40">
+      <c r="D40" t="n">
         <v>26.46</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
         <v>42444</v>
       </c>
-      <c r="C41">
+      <c r="D41" t="n">
         <v>26.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
         <v>42488</v>
       </c>
-      <c r="C42">
+      <c r="D42" t="n">
         <v>26.69</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>42544</v>
       </c>
-      <c r="C43">
+      <c r="D43" t="n">
         <v>25.77</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>42606</v>
       </c>
-      <c r="C44">
+      <c r="D44" t="n">
         <v>24.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>42635</v>
       </c>
-      <c r="C45">
+      <c r="D45" t="n">
         <v>24.84</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
         <v>42661</v>
       </c>
-      <c r="C46">
+      <c r="D46" t="n">
         <v>24.54</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
         <v>42702</v>
       </c>
-      <c r="C47">
+      <c r="D47" t="n">
         <v>26.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>42717</v>
       </c>
-      <c r="C48">
+      <c r="D48" t="n">
         <v>27.11</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>42758</v>
       </c>
-      <c r="C49">
+      <c r="D49" t="n">
         <v>27.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
         <v>42790</v>
       </c>
-      <c r="C50">
+      <c r="D50" t="n">
         <v>28.3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
         <v>42822</v>
       </c>
-      <c r="C51">
+      <c r="D51" t="n">
         <v>28.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
         <v>42838</v>
       </c>
-      <c r="C52">
+      <c r="D52" t="n">
         <v>27.32</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>42885</v>
       </c>
-      <c r="C53">
+      <c r="D53" t="n">
         <v>29.46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
         <v>42900</v>
       </c>
-      <c r="C54">
+      <c r="D54" t="n">
         <v>27.66</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
         <v>42945</v>
       </c>
-      <c r="C55">
+      <c r="D55" t="n">
         <v>29.87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
         <v>42975</v>
       </c>
-      <c r="C56">
+      <c r="D56" t="n">
         <v>29.75</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="C57">
+      <c r="D57" t="n">
         <v>27.72</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>43028</v>
       </c>
-      <c r="C58">
+      <c r="D58" t="n">
         <v>29.6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
         <v>43054</v>
       </c>
-      <c r="C59">
+      <c r="D59" t="n">
         <v>29.61</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
         <v>43084</v>
       </c>
-      <c r="C60">
+      <c r="D60" t="n">
         <v>29.61</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="C61">
+      <c r="D61" t="n">
         <v>29.62</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
         <v>43146</v>
       </c>
-      <c r="C62">
+      <c r="D62" t="n">
         <v>29.63</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
         <v>43181</v>
       </c>
-      <c r="C63">
+      <c r="D63" t="n">
         <v>28.67</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
         <v>43205</v>
       </c>
-      <c r="C64">
+      <c r="D64" t="n">
         <v>29.63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
         <v>43235</v>
       </c>
-      <c r="C65">
+      <c r="D65" t="n">
         <v>29.63</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
         <v>43266</v>
       </c>
-      <c r="C66">
+      <c r="D66" t="n">
         <v>29.64</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
         <v>43296</v>
       </c>
-      <c r="C67">
+      <c r="D67" t="n">
         <v>29.64</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
         <v>43327</v>
       </c>
-      <c r="C68">
+      <c r="D68" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
         <v>43358</v>
       </c>
-      <c r="C69">
+      <c r="D69" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="C70">
+      <c r="D70" t="n">
         <v>25.62</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="C71">
+      <c r="D71" t="n">
         <v>24.71</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
         <v>43449</v>
       </c>
-      <c r="C72">
+      <c r="D72" t="n">
         <v>24.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
         <v>43476</v>
       </c>
-      <c r="C73">
+      <c r="D73" t="n">
         <v>25.26</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
         <v>43518</v>
       </c>
-      <c r="C74">
+      <c r="D74" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
         <v>43553</v>
       </c>
-      <c r="C75">
+      <c r="D75" t="n">
         <v>26.72</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
         <v>43585</v>
       </c>
-      <c r="C76">
+      <c r="D76" t="n">
         <v>26.03</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
         <v>43615</v>
       </c>
-      <c r="C77">
+      <c r="D77" t="n">
         <v>24.75</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
         <v>43643</v>
       </c>
-      <c r="C78">
+      <c r="D78" t="n">
         <v>23.97</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
         <v>43671</v>
       </c>
-      <c r="C79">
+      <c r="D79" t="n">
         <v>24.22</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
         <v>43705</v>
       </c>
-      <c r="C80">
+      <c r="D80" t="n">
         <v>24.01</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
         <v>43732</v>
       </c>
-      <c r="C81">
+      <c r="D81" t="n">
         <v>23.27</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
         <v>43753</v>
       </c>
-      <c r="C82">
+      <c r="D82" t="n">
         <v>23.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
         <v>43791</v>
       </c>
-      <c r="C83">
+      <c r="D83" t="n">
         <v>22.81</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
         <v>43817</v>
       </c>
-      <c r="C84">
+      <c r="D84" t="n">
         <v>22.99</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
         <v>44335</v>
       </c>
-      <c r="C85">
+      <c r="D85" t="n">
         <v>20.58</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
         <v>44355</v>
       </c>
-      <c r="C86">
+      <c r="D86" t="n">
         <v>20.76</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PO017029NU0001</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="C87">
+      <c r="D87" t="n">
         <v>21.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>